--- a/motosrobadas/motos1.xlsx
+++ b/motosrobadas/motos1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\controlmotos\motosrobadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78E0E54-1279-4D59-84C1-EC0991C446CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BECFAD-A902-4D14-AFF0-1116701E55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{A92E468E-1E13-411C-AF44-796E63348ACC}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{A92E468E-1E13-411C-AF44-796E63348ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>NRG-2341</t>
   </si>
   <si>
-    <t>YZ-125</t>
+    <t>GUZZI</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
